--- a/Full Dataset.xlsx
+++ b/Full Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzlol\Documents\GitHub\final_year_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D4C94-803D-4359-B2E0-ABB7F9B2DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46EACE-CF82-4AA4-8C87-D2E006544C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8104B03C-3216-4DCF-A532-412FD289F5DD}"/>
+    <workbookView xWindow="-34320" yWindow="3795" windowWidth="11070" windowHeight="11385" xr2:uid="{8104B03C-3216-4DCF-A532-412FD289F5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="290">
   <si>
     <t>Class Weights</t>
   </si>
@@ -815,13 +815,103 @@
   </si>
   <si>
     <t>1287|3524|19829|143</t>
+  </si>
+  <si>
+    <t>187|5213|96|179</t>
+  </si>
+  <si>
+    <t>186|5225|84|180</t>
+  </si>
+  <si>
+    <t>187|5214|95|179</t>
+  </si>
+  <si>
+    <t>194|5221|88|172</t>
+  </si>
+  <si>
+    <t>994|14178|9175|436</t>
+  </si>
+  <si>
+    <t>1222|8433|14920|208</t>
+  </si>
+  <si>
+    <t>970|14728|8625|460</t>
+  </si>
+  <si>
+    <t>1049|12869|10494|381</t>
+  </si>
+  <si>
+    <t>309|4467|842|57</t>
+  </si>
+  <si>
+    <t>318|4501|808|48</t>
+  </si>
+  <si>
+    <t>297|4578|731|69</t>
+  </si>
+  <si>
+    <t>303|4606|703|63</t>
+  </si>
+  <si>
+    <t>1429|33|23320|1</t>
+  </si>
+  <si>
+    <t>1418|744|22609|12</t>
+  </si>
+  <si>
+    <t>1411|1023|22330|19</t>
+  </si>
+  <si>
+    <t>1382|2274|21079|48</t>
+  </si>
+  <si>
+    <t>190|5217|92|176</t>
+  </si>
+  <si>
+    <t>185|5235|74|181</t>
+  </si>
+  <si>
+    <t>175|5228|81|191</t>
+  </si>
+  <si>
+    <t>192|5238|71|174</t>
+  </si>
+  <si>
+    <t>1099|10688|12665|331</t>
+  </si>
+  <si>
+    <t>1000|13320|10033|430</t>
+  </si>
+  <si>
+    <t>1089|10480|12783|341</t>
+  </si>
+  <si>
+    <t>1065|11382|11971|365</t>
+  </si>
+  <si>
+    <t>298|4634|675|68</t>
+  </si>
+  <si>
+    <t>311|4625|684|55</t>
+  </si>
+  <si>
+    <t>295|4618|691|71</t>
+  </si>
+  <si>
+    <t>314|4583|726|52</t>
+  </si>
+  <si>
+    <t>1421|429|22924|9</t>
+  </si>
+  <si>
+    <t>1411|950|22403|19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +929,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1243,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DABE3BF-0B38-41CB-992B-78482D035AE6}">
   <dimension ref="B1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,31 +2013,19 @@
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="O19">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1953,31 +2037,19 @@
         <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1989,31 +2061,19 @@
         <v>3</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
       <c r="O21">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -2025,31 +2085,19 @@
         <v>3</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2061,31 +2109,19 @@
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
       <c r="O23">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2097,31 +2133,19 @@
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
       <c r="O24">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2133,31 +2157,19 @@
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
       <c r="O25">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2169,31 +2181,19 @@
         <v>3</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
       <c r="O26">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -2205,31 +2205,19 @@
         <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
       <c r="O27">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -2241,31 +2229,19 @@
         <v>3</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
       <c r="O28">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -2277,31 +2253,19 @@
         <v>3</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
       <c r="O29">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -2313,31 +2277,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
       <c r="O30">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -2349,31 +2301,19 @@
         <v>3</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
       <c r="O31">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -2385,31 +2325,19 @@
         <v>3</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
       <c r="O32">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2421,31 +2349,19 @@
         <v>3</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
       <c r="O33">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2457,31 +2373,19 @@
         <v>3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
       <c r="O34">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -3637,6 +3541,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Full Dataset.xlsx
+++ b/Full Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzlol\Documents\GitHub\final_year_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46EACE-CF82-4AA4-8C87-D2E006544C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDCC52-589F-49EF-BE4D-0775E87BA8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34320" yWindow="3795" windowWidth="11070" windowHeight="11385" xr2:uid="{8104B03C-3216-4DCF-A532-412FD289F5DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8104B03C-3216-4DCF-A532-412FD289F5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="317">
   <si>
     <t>Class Weights</t>
   </si>
@@ -139,9 +139,6 @@
     <t>167|5155|152|201</t>
   </si>
   <si>
-    <t>True Positives|True Negatives|False Positives|False Negatives</t>
-  </si>
-  <si>
     <t>830|13514|9839|600</t>
   </si>
   <si>
@@ -905,6 +902,90 @@
   </si>
   <si>
     <t>1411|950|22403|19</t>
+  </si>
+  <si>
+    <t>168|5249|60|198</t>
+  </si>
+  <si>
+    <t>182|5251|58|184</t>
+  </si>
+  <si>
+    <t>185|5219|90|181</t>
+  </si>
+  <si>
+    <t>171|5255|54|195</t>
+  </si>
+  <si>
+    <t>1067|8603|14750|363</t>
+  </si>
+  <si>
+    <t>1154|7612|15741|276</t>
+  </si>
+  <si>
+    <t>1008|11067|12286|422</t>
+  </si>
+  <si>
+    <t>1062|9556|13797|368</t>
+  </si>
+  <si>
+    <t>298|4587|722|68</t>
+  </si>
+  <si>
+    <t>295|4708|601|71</t>
+  </si>
+  <si>
+    <t>311|4471|838|55</t>
+  </si>
+  <si>
+    <t>304|4670|639|62</t>
+  </si>
+  <si>
+    <t>1427|122|23231|3</t>
+  </si>
+  <si>
+    <t>1430|2|23351|0</t>
+  </si>
+  <si>
+    <t>177|5236|73|189</t>
+  </si>
+  <si>
+    <t>168|5243|66|198</t>
+  </si>
+  <si>
+    <t>177|5248|61|189</t>
+  </si>
+  <si>
+    <t>1065|9768|13585|365</t>
+  </si>
+  <si>
+    <t>1060|9404|13949|370</t>
+  </si>
+  <si>
+    <t>1068|9264|14089|362</t>
+  </si>
+  <si>
+    <t>1063|10317|13036|367</t>
+  </si>
+  <si>
+    <t>311|4470|839|55</t>
+  </si>
+  <si>
+    <t>302|4668|641|64</t>
+  </si>
+  <si>
+    <t>312|4509|800|54</t>
+  </si>
+  <si>
+    <t>313|4545|764|53</t>
+  </si>
+  <si>
+    <t>1428|85|23268|2</t>
+  </si>
+  <si>
+    <t>1428|140|23213|2</t>
+  </si>
+  <si>
+    <t>192|5240|69|174</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1093,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -1021,6 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1339,34 +1421,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DABE3BF-0B38-41CB-992B-78482D035AE6}">
   <dimension ref="B1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="60.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="60.88671875" customWidth="1"/>
     <col min="19" max="19" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -1381,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1434,28 +1516,28 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>1E-3</v>
@@ -1464,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1500,7 +1582,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -1509,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>19</v>
@@ -1536,7 +1618,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
@@ -1560,19 +1642,19 @@
         <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="O6">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -1581,34 +1663,34 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="O7">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1617,34 +1699,34 @@
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="O8">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1653,34 +1735,34 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="O9">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1689,34 +1771,34 @@
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="O10">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1725,34 +1807,34 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="N11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1761,34 +1843,34 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="O12">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
@@ -1797,34 +1879,34 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="O13">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -1833,34 +1915,34 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="O14">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -1869,34 +1951,34 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="O15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -1905,34 +1987,34 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="O16">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1941,34 +2023,34 @@
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="O17">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1977,34 +2059,34 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="O18">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2013,10 +2095,10 @@
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2028,7 +2110,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2037,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2052,7 +2134,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
@@ -2061,10 +2143,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2076,7 +2158,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
@@ -2085,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2100,7 +2182,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2109,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2124,7 +2206,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2133,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2148,7 +2230,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2157,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -2172,7 +2254,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2181,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2196,7 +2278,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2205,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2220,7 +2302,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2229,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2244,7 +2326,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
@@ -2253,10 +2335,10 @@
         <v>3</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2268,7 +2350,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
@@ -2277,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2292,7 +2374,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2301,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2316,7 +2398,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2325,10 +2407,10 @@
         <v>3</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2340,7 +2422,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2349,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2364,7 +2446,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2373,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2388,7 +2470,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2397,34 +2479,22 @@
         <v>4</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
       <c r="O35">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2433,34 +2503,22 @@
         <v>4</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
       <c r="O36">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
@@ -2469,34 +2527,22 @@
         <v>4</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
       <c r="O37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
@@ -2505,34 +2551,22 @@
         <v>4</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
       <c r="O38">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2541,34 +2575,22 @@
         <v>4</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
       <c r="O39">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2577,34 +2599,22 @@
         <v>4</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
       <c r="O40">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2613,34 +2623,22 @@
         <v>4</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
       <c r="O41">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2649,34 +2647,22 @@
         <v>4</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
       <c r="O42">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2685,34 +2671,22 @@
         <v>4</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
       <c r="O43">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2721,34 +2695,22 @@
         <v>4</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
       <c r="O44">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
@@ -2757,34 +2719,22 @@
         <v>4</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
       <c r="O45">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
@@ -2793,34 +2743,22 @@
         <v>4</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
       <c r="O46">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
@@ -2829,34 +2767,22 @@
         <v>4</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
       <c r="O47">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2865,34 +2791,22 @@
         <v>4</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
       <c r="O48">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2901,34 +2815,22 @@
         <v>4</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
       <c r="O49">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2937,34 +2839,22 @@
         <v>4</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
       <c r="O50">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2973,34 +2863,34 @@
         <v>5</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="N51" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="O51">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3009,34 +2899,34 @@
         <v>5</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="J52" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="K52" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="O52">
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
@@ -3045,34 +2935,34 @@
         <v>5</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="M53" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="N53" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="O53">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
@@ -3081,34 +2971,34 @@
         <v>5</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="O54">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -3117,34 +3007,34 @@
         <v>5</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="N55" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="O55">
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -3153,34 +3043,34 @@
         <v>5</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="O56">
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3189,34 +3079,34 @@
         <v>5</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="N57" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="O57">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3225,34 +3115,34 @@
         <v>5</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="I58" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="N58" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="O58">
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3261,34 +3151,34 @@
         <v>5</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="O59">
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3297,34 +3187,34 @@
         <v>5</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="M60" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="N60" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="O60">
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="2"/>
@@ -3333,34 +3223,34 @@
         <v>5</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="O61">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="2"/>
@@ -3369,34 +3259,34 @@
         <v>5</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="J62" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="M62" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="N62" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="O62">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -3405,34 +3295,34 @@
         <v>5</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="M63" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="N63" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="O63">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -3441,34 +3331,34 @@
         <v>5</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="M64" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="N64" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="O64">
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3477,34 +3367,34 @@
         <v>5</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="K65" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M65" s="7" t="s">
+      <c r="N65" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="O65">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3513,28 +3403,28 @@
         <v>5</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="M66" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="N66" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="O66">
         <v>2E-3</v>

--- a/Full Dataset.xlsx
+++ b/Full Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzlol\Documents\GitHub\final_year_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDCC52-589F-49EF-BE4D-0775E87BA8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920009E-9D5F-449A-8D5D-85BDBDE2028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8104B03C-3216-4DCF-A532-412FD289F5DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8104B03C-3216-4DCF-A532-412FD289F5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="318">
   <si>
     <t>Class Weights</t>
   </si>
@@ -986,13 +986,16 @@
   </si>
   <si>
     <t>192|5240|69|174</t>
+  </si>
+  <si>
+    <t>0|0|0|0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,8 +1023,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,6 +1046,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1088,12 +1103,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -1103,10 +1119,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1421,32 +1439,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DABE3BF-0B38-41CB-992B-78482D035AE6}">
   <dimension ref="B1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
-    <col min="17" max="17" width="60.88671875" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="60.85546875" customWidth="1"/>
     <col min="19" max="19" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>79</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1507,11 +1525,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1546,11 +1572,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1582,11 +1616,19 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1618,11 +1660,19 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1654,11 +1704,19 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1690,11 +1748,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1726,11 +1792,19 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1762,11 +1836,19 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1798,11 +1880,19 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1834,11 +1924,19 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1870,11 +1968,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1906,11 +2012,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1942,11 +2056,19 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1978,11 +2100,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2014,11 +2144,19 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>2</v>
       </c>
@@ -2050,11 +2188,19 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>2</v>
       </c>
@@ -2086,11 +2232,19 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>3</v>
       </c>
@@ -2100,21 +2254,41 @@
       <c r="H19" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="I19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O19">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>3</v>
       </c>
@@ -2124,21 +2298,41 @@
       <c r="H20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="I20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O20">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>3</v>
       </c>
@@ -2148,21 +2342,41 @@
       <c r="H21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="I21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O21">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
       <c r="F22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2172,21 +2386,41 @@
       <c r="H22" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="I22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O22">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>3</v>
       </c>
@@ -2196,21 +2430,41 @@
       <c r="H23" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="I23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
       <c r="F24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2220,21 +2474,41 @@
       <c r="H24" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="I24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O24">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2244,21 +2518,41 @@
       <c r="H25" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="I25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O25">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
       <c r="F26" s="5" t="s">
         <v>3</v>
       </c>
@@ -2268,21 +2562,41 @@
       <c r="H26" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="I26" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O26">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
       <c r="F27" s="5" t="s">
         <v>3</v>
       </c>
@@ -2292,21 +2606,41 @@
       <c r="H27" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="I27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O27">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28" s="5" t="s">
         <v>3</v>
       </c>
@@ -2316,21 +2650,41 @@
       <c r="H28" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="I28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O28">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2340,21 +2694,41 @@
       <c r="H29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="I29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O29">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
       <c r="F30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2364,21 +2738,41 @@
       <c r="H30" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="I30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>3</v>
       </c>
@@ -2388,21 +2782,41 @@
       <c r="H31" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="I31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O31">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
       <c r="F32" s="5" t="s">
         <v>3</v>
       </c>
@@ -2412,21 +2826,41 @@
       <c r="H32" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="I32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O32">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
       <c r="F33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2436,21 +2870,41 @@
       <c r="H33" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="I33" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O33">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
       <c r="F34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2460,21 +2914,41 @@
       <c r="H34" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="I34" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O34">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
       <c r="F35" s="5" t="s">
         <v>4</v>
       </c>
@@ -2484,21 +2958,41 @@
       <c r="H35" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="I35" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O35">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
       <c r="F36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2508,21 +3002,41 @@
       <c r="H36" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="I36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O36">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
       <c r="F37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2532,21 +3046,41 @@
       <c r="H37" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="I37" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O37">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
       <c r="F38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2556,21 +3090,41 @@
       <c r="H38" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="I38" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O38">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
       <c r="F39" s="5" t="s">
         <v>4</v>
       </c>
@@ -2580,21 +3134,41 @@
       <c r="H39" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="I39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O39">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
       <c r="F40" s="5" t="s">
         <v>4</v>
       </c>
@@ -2604,21 +3178,41 @@
       <c r="H40" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="I40" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O40">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
       <c r="F41" s="5" t="s">
         <v>4</v>
       </c>
@@ -2628,21 +3222,41 @@
       <c r="H41" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="I41" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O41">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2652,21 +3266,41 @@
       <c r="H42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="I42" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O42">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
       <c r="F43" s="5" t="s">
         <v>4</v>
       </c>
@@ -2676,21 +3310,41 @@
       <c r="H43" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
+      <c r="I43" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O43">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
       <c r="F44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2700,21 +3354,41 @@
       <c r="H44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="I44" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O44">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
       <c r="F45" s="5" t="s">
         <v>4</v>
       </c>
@@ -2724,21 +3398,41 @@
       <c r="H45" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="I45" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O45">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
       <c r="F46" s="5" t="s">
         <v>4</v>
       </c>
@@ -2748,21 +3442,41 @@
       <c r="H46" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+      <c r="I46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O46">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
       <c r="F47" s="5" t="s">
         <v>4</v>
       </c>
@@ -2772,21 +3486,41 @@
       <c r="H47" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="I47" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O47">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
       <c r="F48" s="5" t="s">
         <v>4</v>
       </c>
@@ -2796,21 +3530,41 @@
       <c r="H48" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="I48" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O48">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
       <c r="F49" s="5" t="s">
         <v>4</v>
       </c>
@@ -2820,21 +3574,41 @@
       <c r="H49" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="I49" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O49">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
       <c r="F50" s="5" t="s">
         <v>4</v>
       </c>
@@ -2844,21 +3618,41 @@
       <c r="H50" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="I50" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="O50">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
       <c r="F51" s="5" t="s">
         <v>5</v>
       </c>
@@ -2890,11 +3684,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
       <c r="F52" s="5" t="s">
         <v>5</v>
       </c>
@@ -2926,11 +3728,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
       <c r="F53" s="5" t="s">
         <v>5</v>
       </c>
@@ -2962,11 +3772,19 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
       <c r="F54" s="5" t="s">
         <v>5</v>
       </c>
@@ -2998,11 +3816,19 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
       <c r="F55" s="5" t="s">
         <v>5</v>
       </c>
@@ -3034,11 +3860,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
       <c r="F56" s="5" t="s">
         <v>5</v>
       </c>
@@ -3070,11 +3904,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
       <c r="F57" s="5" t="s">
         <v>5</v>
       </c>
@@ -3106,11 +3948,19 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
       <c r="F58" s="5" t="s">
         <v>5</v>
       </c>
@@ -3142,11 +3992,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
       <c r="F59" s="5" t="s">
         <v>5</v>
       </c>
@@ -3178,11 +4036,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="2"/>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
       <c r="F60" s="5" t="s">
         <v>5</v>
       </c>
@@ -3214,11 +4080,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
       <c r="F61" s="5" t="s">
         <v>5</v>
       </c>
@@ -3250,11 +4124,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
       <c r="F62" s="5" t="s">
         <v>5</v>
       </c>
@@ -3286,11 +4168,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
       <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
@@ -3322,11 +4212,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
       <c r="F64" s="5" t="s">
         <v>5</v>
       </c>
@@ -3358,11 +4256,19 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
       <c r="F65" s="5" t="s">
         <v>5</v>
       </c>
@@ -3394,11 +4300,19 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
       <c r="F66" s="5" t="s">
         <v>5</v>
       </c>
